--- a/DEMO/trunk/openl-bean-mapper-demo/src/main/resources/ChartisRatingModelMappingExample.xlsx
+++ b/DEMO/trunk/openl-bean-mapper-demo/src/main/resources/ChartisRatingModelMappingExample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="24735" windowHeight="11955"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="24735" windowHeight="11955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,10 +177,10 @@
 return null;</t>
   </si>
   <si>
-    <t>Method Integer convertInsuredAmount(ArrayList source, Integer dest)</t>
-  </si>
-  <si>
-    <t>Method Boolean hasExclSpecEndorsement(ArrayList source, Boolean dest)</t>
+    <t>Method Integer convertInsuredAmount(List source, Integer dest)</t>
+  </si>
+  <si>
+    <t>Method Boolean hasExclSpecEndorsement(List source, Boolean dest)</t>
   </si>
 </sst>
 </file>
@@ -724,15 +724,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="100.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49.28515625" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" customWidth="1"/>
@@ -903,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/DEMO/trunk/openl-bean-mapper-demo/src/main/resources/ChartisRatingModelMappingExample.xlsx
+++ b/DEMO/trunk/openl-bean-mapper-demo/src/main/resources/ChartisRatingModelMappingExample.xlsx
@@ -139,18 +139,6 @@
 return false;</t>
   </si>
   <si>
-    <t>RiskItem item = findRiskItemBySeqNo(source, 1);
-if (item != null &amp;&amp; item.getCoverages() != null) {
-    for (int i=0; i&lt;item.getCoverages().size(); i++) {
-           Coverage coverage =(Coverage)item.getCoverages().get(i);
-           if (isDwellCoverage(coverage)) {
-                return coverage.getLimitAmount().intValue();
-           }
-    }
-}
-return 0;</t>
-  </si>
-  <si>
     <t>boolean</t>
   </si>
   <si>
@@ -181,6 +169,18 @@
   </si>
   <si>
     <t>Method Boolean hasExclSpecEndorsement(List source, Boolean dest)</t>
+  </si>
+  <si>
+    <t>RiskItem item = findRiskItemBySeqNo(source, 1);
+if (item != null &amp;&amp; item.getCoverages() != null) {
+    for (int i=0; i&lt;item.getCoverages().size(); i++) {
+           Coverage coverage =(Coverage)item.getCoverages().get(i);
+           if (isDwellCoverage(coverage)) {
+                return coverage.getLimitAmount().doubleValue();
+           }
+    }
+}
+return 0;</t>
   </si>
 </sst>
 </file>
@@ -375,13 +375,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -390,12 +393,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -725,7 +722,7 @@
   <dimension ref="C3:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -739,14 +736,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="2" t="s">
@@ -844,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -904,7 +901,7 @@
   <dimension ref="C3:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -913,33 +910,33 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:3">
-      <c r="C3" s="10" t="s">
-        <v>44</v>
+      <c r="C3" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="3:3" ht="173.25" customHeight="1">
       <c r="C4" s="9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="10" t="s">
-        <v>45</v>
+      <c r="C7" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="3:3" ht="168" customHeight="1">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="7" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -962,22 +959,22 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:3">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="2:3" ht="144" customHeight="1">
+      <c r="B5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="2:3" ht="144" customHeight="1">
-      <c r="B5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
@@ -996,7 +993,7 @@
     <row r="12" spans="2:3">
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -1037,13 +1034,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:4">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1051,13 +1048,13 @@
       </c>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="17"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="3:4">
-      <c r="C7" s="18"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
